--- a/data/pca/factorExposure/factorExposure_2011-09-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02195118187410336</v>
+        <v>0.01647664324084725</v>
       </c>
       <c r="C2">
-        <v>0.01852484184937183</v>
+        <v>-0.01082148208421587</v>
       </c>
       <c r="D2">
-        <v>0.04412909122677768</v>
+        <v>0.0346200692293552</v>
       </c>
       <c r="E2">
-        <v>-0.06755059455866437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03041483448736511</v>
+      </c>
+      <c r="F2">
+        <v>-0.03281096454472864</v>
+      </c>
+      <c r="G2">
+        <v>-0.004208559832317947</v>
+      </c>
+      <c r="H2">
+        <v>-0.01438887543381338</v>
+      </c>
+      <c r="I2">
+        <v>-0.009185276063569916</v>
+      </c>
+      <c r="J2">
+        <v>0.06249135876943647</v>
+      </c>
+      <c r="K2">
+        <v>0.06646188582728209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.08301319985248967</v>
+        <v>0.09551899412894888</v>
       </c>
       <c r="C4">
-        <v>0.04930291857679851</v>
+        <v>-0.05129127446063019</v>
       </c>
       <c r="D4">
-        <v>0.05088946700657745</v>
+        <v>0.03845409601844984</v>
       </c>
       <c r="E4">
-        <v>-0.01369793486195625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.005486879886026109</v>
+      </c>
+      <c r="F4">
+        <v>-0.07554566053820592</v>
+      </c>
+      <c r="G4">
+        <v>-0.0305934928491118</v>
+      </c>
+      <c r="H4">
+        <v>0.005595427141109059</v>
+      </c>
+      <c r="I4">
+        <v>0.06649695539044162</v>
+      </c>
+      <c r="J4">
+        <v>-0.03645763465287921</v>
+      </c>
+      <c r="K4">
+        <v>-0.04987385853673449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1193759891865842</v>
+        <v>0.1307508867697907</v>
       </c>
       <c r="C6">
-        <v>-0.001606324761991925</v>
+        <v>-0.006114375586230208</v>
       </c>
       <c r="D6">
-        <v>0.04443796526288433</v>
+        <v>0.06754301330354252</v>
       </c>
       <c r="E6">
-        <v>-0.07111683674945067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01925514781085298</v>
+      </c>
+      <c r="F6">
+        <v>-0.03297974830909139</v>
+      </c>
+      <c r="G6">
+        <v>-0.05184384686522556</v>
+      </c>
+      <c r="H6">
+        <v>0.1970338516223559</v>
+      </c>
+      <c r="I6">
+        <v>-0.06817684354664218</v>
+      </c>
+      <c r="J6">
+        <v>-0.4439950709446691</v>
+      </c>
+      <c r="K6">
+        <v>-0.02242695437201796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07296597551080916</v>
+        <v>0.07219136583186593</v>
       </c>
       <c r="C7">
-        <v>0.02370676557874402</v>
+        <v>-0.05380859264490954</v>
       </c>
       <c r="D7">
-        <v>0.05781043893831914</v>
+        <v>0.05216440903287098</v>
       </c>
       <c r="E7">
-        <v>-0.05373179837639269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.02055694530232418</v>
+      </c>
+      <c r="F7">
+        <v>-0.03768869853136215</v>
+      </c>
+      <c r="G7">
+        <v>0.01274545830619932</v>
+      </c>
+      <c r="H7">
+        <v>-0.002665056153800881</v>
+      </c>
+      <c r="I7">
+        <v>0.05175303781321009</v>
+      </c>
+      <c r="J7">
+        <v>0.05925935274639691</v>
+      </c>
+      <c r="K7">
+        <v>-0.06460857858536233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.03945255170743561</v>
+        <v>0.04150687729334136</v>
       </c>
       <c r="C8">
-        <v>0.05225219228965478</v>
+        <v>-0.02350324043217093</v>
       </c>
       <c r="D8">
-        <v>-0.006775101343932548</v>
+        <v>-0.002887780065000014</v>
       </c>
       <c r="E8">
-        <v>-0.05736976425798671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.050792671625133</v>
+      </c>
+      <c r="F8">
+        <v>-0.05885483898109704</v>
+      </c>
+      <c r="G8">
+        <v>-0.06474712801077709</v>
+      </c>
+      <c r="H8">
+        <v>0.03589942856684009</v>
+      </c>
+      <c r="I8">
+        <v>0.08870023646202652</v>
+      </c>
+      <c r="J8">
+        <v>-0.01601982770587964</v>
+      </c>
+      <c r="K8">
+        <v>-0.04581448890197516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.07939469443288999</v>
+        <v>0.08721389673801552</v>
       </c>
       <c r="C9">
-        <v>0.05796505568420466</v>
+        <v>-0.05134608206063854</v>
       </c>
       <c r="D9">
-        <v>0.04358461120467278</v>
+        <v>0.03697512642979531</v>
       </c>
       <c r="E9">
-        <v>-0.01727994076694453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005554545988701227</v>
+      </c>
+      <c r="F9">
+        <v>-0.05950976669651421</v>
+      </c>
+      <c r="G9">
+        <v>-0.0428801892634976</v>
+      </c>
+      <c r="H9">
+        <v>0.003092728688438185</v>
+      </c>
+      <c r="I9">
+        <v>0.0775611068348401</v>
+      </c>
+      <c r="J9">
+        <v>-0.03781096239686731</v>
+      </c>
+      <c r="K9">
+        <v>-0.02813530538711195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01976310616644142</v>
+        <v>0.06772690639855063</v>
       </c>
       <c r="C10">
-        <v>-0.1649992769414082</v>
+        <v>0.1979435920634129</v>
       </c>
       <c r="D10">
-        <v>0.00273714676621415</v>
+        <v>0.02439119104028456</v>
       </c>
       <c r="E10">
-        <v>-0.08264568917222673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.04105446495945841</v>
+      </c>
+      <c r="F10">
+        <v>-0.03581929877918975</v>
+      </c>
+      <c r="G10">
+        <v>0.0347318375159722</v>
+      </c>
+      <c r="H10">
+        <v>0.01008823573526437</v>
+      </c>
+      <c r="I10">
+        <v>-0.02704821101124046</v>
+      </c>
+      <c r="J10">
+        <v>0.02735570406981043</v>
+      </c>
+      <c r="K10">
+        <v>0.01964150385267518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07521875175777956</v>
+        <v>0.07615328873180112</v>
       </c>
       <c r="C11">
-        <v>0.05850994882200638</v>
+        <v>-0.05835835031037698</v>
       </c>
       <c r="D11">
-        <v>0.02975512163782994</v>
+        <v>0.03161005506303164</v>
       </c>
       <c r="E11">
-        <v>-0.0386128316683657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01610201604420225</v>
+      </c>
+      <c r="F11">
+        <v>-0.02404409549849675</v>
+      </c>
+      <c r="G11">
+        <v>-0.06806774530342245</v>
+      </c>
+      <c r="H11">
+        <v>-0.01684711575515657</v>
+      </c>
+      <c r="I11">
+        <v>0.0756323487137808</v>
+      </c>
+      <c r="J11">
+        <v>0.03312225863818223</v>
+      </c>
+      <c r="K11">
+        <v>0.0501197736234003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07152858227966731</v>
+        <v>0.07302248795909513</v>
       </c>
       <c r="C12">
-        <v>0.04408170865378822</v>
+        <v>-0.04724794893385392</v>
       </c>
       <c r="D12">
-        <v>0.03846349234344341</v>
+        <v>0.0277140374767717</v>
       </c>
       <c r="E12">
-        <v>-0.03114092561699439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.005592683466752069</v>
+      </c>
+      <c r="F12">
+        <v>-0.03495931581976764</v>
+      </c>
+      <c r="G12">
+        <v>-0.05457271578909467</v>
+      </c>
+      <c r="H12">
+        <v>0.009837967025919145</v>
+      </c>
+      <c r="I12">
+        <v>0.08800195606246136</v>
+      </c>
+      <c r="J12">
+        <v>0.03609268877849746</v>
+      </c>
+      <c r="K12">
+        <v>0.02298613442178625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.08080452137294036</v>
+        <v>0.06985557600304984</v>
       </c>
       <c r="C13">
-        <v>0.03543208544759323</v>
+        <v>-0.03407476665682968</v>
       </c>
       <c r="D13">
-        <v>0.02520429091267646</v>
+        <v>-0.008518967307315144</v>
       </c>
       <c r="E13">
-        <v>-0.01949279873922592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.001566166350083316</v>
+      </c>
+      <c r="F13">
+        <v>-0.04502192351021918</v>
+      </c>
+      <c r="G13">
+        <v>-0.02333434851171882</v>
+      </c>
+      <c r="H13">
+        <v>0.002042498608383235</v>
+      </c>
+      <c r="I13">
+        <v>0.09423918219977857</v>
+      </c>
+      <c r="J13">
+        <v>0.02161384893245525</v>
+      </c>
+      <c r="K13">
+        <v>-0.1039938544433266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03443900960895052</v>
+        <v>0.04349416453735538</v>
       </c>
       <c r="C14">
-        <v>-0.004711888951876755</v>
+        <v>-0.008410376110973455</v>
       </c>
       <c r="D14">
-        <v>0.03094593227147196</v>
+        <v>0.03506199243667877</v>
       </c>
       <c r="E14">
-        <v>-0.009057949918701012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005869878295855444</v>
+      </c>
+      <c r="F14">
+        <v>-0.0274151286291414</v>
+      </c>
+      <c r="G14">
+        <v>-0.03002365840705892</v>
+      </c>
+      <c r="H14">
+        <v>-0.04206851402559311</v>
+      </c>
+      <c r="I14">
+        <v>0.06467158284668895</v>
+      </c>
+      <c r="J14">
+        <v>-0.04585201312859877</v>
+      </c>
+      <c r="K14">
+        <v>-0.04661407648903244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.05755395421420775</v>
+        <v>0.04600992166390883</v>
       </c>
       <c r="C15">
-        <v>0.01566276600431239</v>
+        <v>-0.01575568779448291</v>
       </c>
       <c r="D15">
-        <v>0.008685321883518464</v>
+        <v>-0.01093954986936969</v>
       </c>
       <c r="E15">
-        <v>-0.005838560148992091</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.004827478897533447</v>
+      </c>
+      <c r="F15">
+        <v>-0.03542389897646865</v>
+      </c>
+      <c r="G15">
+        <v>-0.01259764300168664</v>
+      </c>
+      <c r="H15">
+        <v>-0.002346663744130362</v>
+      </c>
+      <c r="I15">
+        <v>0.02161843087924407</v>
+      </c>
+      <c r="J15">
+        <v>-0.03717061608605433</v>
+      </c>
+      <c r="K15">
+        <v>-0.07412638223107242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06458529575926852</v>
+        <v>0.0752773580219912</v>
       </c>
       <c r="C16">
-        <v>0.05956752248625258</v>
+        <v>-0.05889564429516757</v>
       </c>
       <c r="D16">
-        <v>0.03539523690664575</v>
+        <v>0.03369263353420589</v>
       </c>
       <c r="E16">
-        <v>-0.02694244075467541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005090628668753204</v>
+      </c>
+      <c r="F16">
+        <v>-0.03928674269695605</v>
+      </c>
+      <c r="G16">
+        <v>-0.04230361796955444</v>
+      </c>
+      <c r="H16">
+        <v>-0.01311437862587375</v>
+      </c>
+      <c r="I16">
+        <v>0.05714503216032747</v>
+      </c>
+      <c r="J16">
+        <v>0.0241179705059775</v>
+      </c>
+      <c r="K16">
+        <v>0.02693206405453589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.06954113960094417</v>
+        <v>0.06271700656664077</v>
       </c>
       <c r="C20">
-        <v>0.05206767014121989</v>
+        <v>-0.03869988121395813</v>
       </c>
       <c r="D20">
-        <v>0.01614613961540359</v>
+        <v>0.01126089994111439</v>
       </c>
       <c r="E20">
-        <v>-0.02516906720403313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0139762089751001</v>
+      </c>
+      <c r="F20">
+        <v>-0.01738916681188315</v>
+      </c>
+      <c r="G20">
+        <v>-0.04445912937677667</v>
+      </c>
+      <c r="H20">
+        <v>-0.01250191909177013</v>
+      </c>
+      <c r="I20">
+        <v>0.1215753023467843</v>
+      </c>
+      <c r="J20">
+        <v>0.005260891550415889</v>
+      </c>
+      <c r="K20">
+        <v>-0.0340816548526809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03896736778257103</v>
+        <v>0.03137626890249313</v>
       </c>
       <c r="C21">
-        <v>0.02372195340871083</v>
+        <v>-0.02428634221114055</v>
       </c>
       <c r="D21">
-        <v>-0.02499955959293877</v>
+        <v>-0.03356599213565673</v>
       </c>
       <c r="E21">
-        <v>-0.01540142554405494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.003208344681912205</v>
+      </c>
+      <c r="F21">
+        <v>-0.02316912525180961</v>
+      </c>
+      <c r="G21">
+        <v>-0.01396795818789623</v>
+      </c>
+      <c r="H21">
+        <v>0.07636695982035509</v>
+      </c>
+      <c r="I21">
+        <v>0.01958257392060136</v>
+      </c>
+      <c r="J21">
+        <v>-0.03854328588472726</v>
+      </c>
+      <c r="K21">
+        <v>-0.06121946346822645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1173026491061598</v>
+        <v>0.09415504275898841</v>
       </c>
       <c r="C22">
-        <v>0.1100986592952209</v>
+        <v>-0.06517007646669049</v>
       </c>
       <c r="D22">
-        <v>-0.02303809318197917</v>
+        <v>-0.2598817296967013</v>
       </c>
       <c r="E22">
-        <v>-0.01505958963865779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.03524909591939547</v>
+      </c>
+      <c r="F22">
+        <v>-0.4829087473618235</v>
+      </c>
+      <c r="G22">
+        <v>0.3290968499172323</v>
+      </c>
+      <c r="H22">
+        <v>0.01205389068449709</v>
+      </c>
+      <c r="I22">
+        <v>-0.1947187203997373</v>
+      </c>
+      <c r="J22">
+        <v>0.04853122422393181</v>
+      </c>
+      <c r="K22">
+        <v>0.05060395685223167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1182542711844935</v>
+        <v>0.09509077103659079</v>
       </c>
       <c r="C23">
-        <v>0.1093978705548044</v>
+        <v>-0.06541752305751392</v>
       </c>
       <c r="D23">
-        <v>-0.02114679574395094</v>
+        <v>-0.2591873276896176</v>
       </c>
       <c r="E23">
-        <v>-0.01609206571830082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.03545719745134231</v>
+      </c>
+      <c r="F23">
+        <v>-0.4877320927723455</v>
+      </c>
+      <c r="G23">
+        <v>0.3244148190559107</v>
+      </c>
+      <c r="H23">
+        <v>0.01057384069949129</v>
+      </c>
+      <c r="I23">
+        <v>-0.1974437347550415</v>
+      </c>
+      <c r="J23">
+        <v>0.04306694648993227</v>
+      </c>
+      <c r="K23">
+        <v>0.05085806207665247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08587982221379936</v>
+        <v>0.08531070245815302</v>
       </c>
       <c r="C24">
-        <v>0.05749283230859695</v>
+        <v>-0.0566049968423968</v>
       </c>
       <c r="D24">
-        <v>0.03100629466079049</v>
+        <v>0.02523955096731191</v>
       </c>
       <c r="E24">
-        <v>-0.04096614402865961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.01474664778381593</v>
+      </c>
+      <c r="F24">
+        <v>-0.04516997603021177</v>
+      </c>
+      <c r="G24">
+        <v>-0.06299384104175514</v>
+      </c>
+      <c r="H24">
+        <v>0.005000867039835408</v>
+      </c>
+      <c r="I24">
+        <v>0.07117602576643287</v>
+      </c>
+      <c r="J24">
+        <v>0.01436231422989748</v>
+      </c>
+      <c r="K24">
+        <v>0.03591823032316551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.08235836745111284</v>
+        <v>0.07940414766978919</v>
       </c>
       <c r="C25">
-        <v>0.04831255841715374</v>
+        <v>-0.04540567735616027</v>
       </c>
       <c r="D25">
-        <v>0.04675374404891879</v>
+        <v>0.03639938335683808</v>
       </c>
       <c r="E25">
-        <v>-0.04800220420206256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.007304765515305811</v>
+      </c>
+      <c r="F25">
+        <v>-0.04944181807900442</v>
+      </c>
+      <c r="G25">
+        <v>-0.06157258552584925</v>
+      </c>
+      <c r="H25">
+        <v>-0.005117346023212432</v>
+      </c>
+      <c r="I25">
+        <v>0.08248452580019627</v>
+      </c>
+      <c r="J25">
+        <v>0.0202003512781109</v>
+      </c>
+      <c r="K25">
+        <v>0.04855892453479095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05337369062335213</v>
+        <v>0.04784189048301968</v>
       </c>
       <c r="C26">
-        <v>0.01335502519755478</v>
+        <v>-0.02265960213179829</v>
       </c>
       <c r="D26">
-        <v>-0.001078830116198406</v>
+        <v>-0.01650249337060016</v>
       </c>
       <c r="E26">
-        <v>-0.03289067245813406</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007511923357539652</v>
+      </c>
+      <c r="F26">
+        <v>-0.02294707920631339</v>
+      </c>
+      <c r="G26">
+        <v>-0.01933331989746773</v>
+      </c>
+      <c r="H26">
+        <v>-0.02297252830286355</v>
+      </c>
+      <c r="I26">
+        <v>0.03912478626323523</v>
+      </c>
+      <c r="J26">
+        <v>-0.01715710200551375</v>
+      </c>
+      <c r="K26">
+        <v>-0.1212862074975168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.04637930980294617</v>
+        <v>0.08338986348276781</v>
       </c>
       <c r="C28">
-        <v>-0.297826462632956</v>
+        <v>0.2969810444379342</v>
       </c>
       <c r="D28">
-        <v>0.004009325321096819</v>
+        <v>-0.0009970189639430583</v>
       </c>
       <c r="E28">
-        <v>-0.07305493639302152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.01828539390260601</v>
+      </c>
+      <c r="F28">
+        <v>-0.0165369876722501</v>
+      </c>
+      <c r="G28">
+        <v>-0.01893385945739954</v>
+      </c>
+      <c r="H28">
+        <v>0.04585367060767963</v>
+      </c>
+      <c r="I28">
+        <v>-0.04034533045351501</v>
+      </c>
+      <c r="J28">
+        <v>0.01271905226650648</v>
+      </c>
+      <c r="K28">
+        <v>-0.06899157561758491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05995865446152046</v>
+        <v>0.05531388020309756</v>
       </c>
       <c r="C29">
-        <v>-0.0001216687345242305</v>
+        <v>-0.01053018686078711</v>
       </c>
       <c r="D29">
-        <v>0.03167408686689691</v>
+        <v>0.02380923209644909</v>
       </c>
       <c r="E29">
-        <v>-0.02189852570255971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008469085461989018</v>
+      </c>
+      <c r="F29">
+        <v>-0.03519749585175092</v>
+      </c>
+      <c r="G29">
+        <v>-0.03026869089660589</v>
+      </c>
+      <c r="H29">
+        <v>-0.05485753459362359</v>
+      </c>
+      <c r="I29">
+        <v>0.05178406148148996</v>
+      </c>
+      <c r="J29">
+        <v>-0.02427398101026655</v>
+      </c>
+      <c r="K29">
+        <v>-0.03893478479968732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1517931200672778</v>
+        <v>0.1326136685475723</v>
       </c>
       <c r="C30">
-        <v>0.06629675208415599</v>
+        <v>-0.05527350097053396</v>
       </c>
       <c r="D30">
-        <v>0.06713703833636166</v>
+        <v>0.03133440813305406</v>
       </c>
       <c r="E30">
-        <v>-0.05283281347759896</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.005682703089263426</v>
+      </c>
+      <c r="F30">
+        <v>-0.1248389564561159</v>
+      </c>
+      <c r="G30">
+        <v>-0.06946695143710332</v>
+      </c>
+      <c r="H30">
+        <v>0.1091216898977645</v>
+      </c>
+      <c r="I30">
+        <v>0.3153081877855309</v>
+      </c>
+      <c r="J30">
+        <v>0.07541738065574397</v>
+      </c>
+      <c r="K30">
+        <v>-0.2296612093402216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.0598383885380387</v>
+        <v>0.04879960085304681</v>
       </c>
       <c r="C31">
-        <v>0.01575589314848182</v>
+        <v>-0.03506198447219085</v>
       </c>
       <c r="D31">
-        <v>0.02451284444651917</v>
+        <v>0.006458307228993322</v>
       </c>
       <c r="E31">
-        <v>-0.003768245914450795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008895921107416958</v>
+      </c>
+      <c r="F31">
+        <v>-0.01725520427928912</v>
+      </c>
+      <c r="G31">
+        <v>-0.001064212248401349</v>
+      </c>
+      <c r="H31">
+        <v>-0.04834207177971106</v>
+      </c>
+      <c r="I31">
+        <v>0.04527935037135237</v>
+      </c>
+      <c r="J31">
+        <v>-0.03094233846837992</v>
+      </c>
+      <c r="K31">
+        <v>-0.01767120172627287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04585801413387983</v>
+        <v>0.0504194095886878</v>
       </c>
       <c r="C32">
-        <v>0.009793544229760715</v>
+        <v>0.007264371634313589</v>
       </c>
       <c r="D32">
-        <v>0.01411486962978881</v>
+        <v>-0.01699778386739876</v>
       </c>
       <c r="E32">
-        <v>0.000159275091003728</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01967417699681915</v>
+      </c>
+      <c r="F32">
+        <v>-0.07475818030339744</v>
+      </c>
+      <c r="G32">
+        <v>0.006805435249382182</v>
+      </c>
+      <c r="H32">
+        <v>0.001900902134557401</v>
+      </c>
+      <c r="I32">
+        <v>-0.0330466600472518</v>
+      </c>
+      <c r="J32">
+        <v>0.06840653744028052</v>
+      </c>
+      <c r="K32">
+        <v>-0.1364029094161588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1026515925433053</v>
+        <v>0.10411767903316</v>
       </c>
       <c r="C33">
-        <v>0.02955108257273696</v>
+        <v>-0.0461745532145539</v>
       </c>
       <c r="D33">
-        <v>0.03423252446141645</v>
+        <v>0.01157718481640193</v>
       </c>
       <c r="E33">
-        <v>-0.01078690512538546</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02027810783419673</v>
+      </c>
+      <c r="F33">
+        <v>-0.02882974053638376</v>
+      </c>
+      <c r="G33">
+        <v>-0.01894518325190216</v>
+      </c>
+      <c r="H33">
+        <v>-0.01886154325030941</v>
+      </c>
+      <c r="I33">
+        <v>0.06892805261728731</v>
+      </c>
+      <c r="J33">
+        <v>-0.02092673171369284</v>
+      </c>
+      <c r="K33">
+        <v>-0.03326608900085129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06416122889293029</v>
+        <v>0.07052300133980388</v>
       </c>
       <c r="C34">
-        <v>0.05698193547257214</v>
+        <v>-0.04759659292415538</v>
       </c>
       <c r="D34">
-        <v>0.02048152936701967</v>
+        <v>0.02023863753429082</v>
       </c>
       <c r="E34">
-        <v>-0.02608414764831034</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.009775597185323488</v>
+      </c>
+      <c r="F34">
+        <v>-0.02956389957807839</v>
+      </c>
+      <c r="G34">
+        <v>-0.04736698601149134</v>
+      </c>
+      <c r="H34">
+        <v>-0.02253925781160081</v>
+      </c>
+      <c r="I34">
+        <v>0.06628957187501683</v>
+      </c>
+      <c r="J34">
+        <v>0.0002009025972498168</v>
+      </c>
+      <c r="K34">
+        <v>0.0539802126915082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04209467231062526</v>
+        <v>0.03617568146111531</v>
       </c>
       <c r="C35">
-        <v>0.008260083827495608</v>
+        <v>-0.01666996986681067</v>
       </c>
       <c r="D35">
-        <v>0.01875086506159033</v>
+        <v>0.0119246712742816</v>
       </c>
       <c r="E35">
-        <v>-0.004577186235018477</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01155889286579969</v>
+      </c>
+      <c r="F35">
+        <v>-0.01318306381688584</v>
+      </c>
+      <c r="G35">
+        <v>-0.003761495373843971</v>
+      </c>
+      <c r="H35">
+        <v>-0.01521017254892519</v>
+      </c>
+      <c r="I35">
+        <v>0.06386961957601771</v>
+      </c>
+      <c r="J35">
+        <v>0.001895673088797862</v>
+      </c>
+      <c r="K35">
+        <v>-0.006746964261375562</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03797452176349147</v>
+        <v>0.03424113585156582</v>
       </c>
       <c r="C36">
-        <v>0.01521859811445189</v>
+        <v>-0.01263801376880463</v>
       </c>
       <c r="D36">
-        <v>0.01206009106265355</v>
+        <v>0.001824130914380973</v>
       </c>
       <c r="E36">
-        <v>-0.03113751840518665</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0150295433942963</v>
+      </c>
+      <c r="F36">
+        <v>-0.03812562708073139</v>
+      </c>
+      <c r="G36">
+        <v>-0.02423529052877804</v>
+      </c>
+      <c r="H36">
+        <v>-0.009712074133012265</v>
+      </c>
+      <c r="I36">
+        <v>0.07309101660875389</v>
+      </c>
+      <c r="J36">
+        <v>-0.008713325930301235</v>
+      </c>
+      <c r="K36">
+        <v>-0.04150164768215226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06668767656790038</v>
+        <v>0.0553345505048067</v>
       </c>
       <c r="C38">
-        <v>0.006503259257389779</v>
+        <v>-0.03598033443998996</v>
       </c>
       <c r="D38">
-        <v>-0.02050109659012224</v>
+        <v>-0.03466799619017434</v>
       </c>
       <c r="E38">
-        <v>0.01681722636690762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01015017301203157</v>
+      </c>
+      <c r="F38">
+        <v>0.002687930630793893</v>
+      </c>
+      <c r="G38">
+        <v>-0.00381319736293311</v>
+      </c>
+      <c r="H38">
+        <v>-0.01801222153240753</v>
+      </c>
+      <c r="I38">
+        <v>-0.04463174628155562</v>
+      </c>
+      <c r="J38">
+        <v>0.0179334159720766</v>
+      </c>
+      <c r="K38">
+        <v>-0.06659269883427948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.09594665437358268</v>
+        <v>0.1005831947004066</v>
       </c>
       <c r="C39">
-        <v>0.04580080207750805</v>
+        <v>-0.04962739493378166</v>
       </c>
       <c r="D39">
-        <v>0.04079204047000885</v>
+        <v>0.03162409876118043</v>
       </c>
       <c r="E39">
-        <v>-0.006463220998138694</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.002060735582628153</v>
+      </c>
+      <c r="F39">
+        <v>-0.04136319609467436</v>
+      </c>
+      <c r="G39">
+        <v>-0.05675136404753351</v>
+      </c>
+      <c r="H39">
+        <v>0.005473674262502002</v>
+      </c>
+      <c r="I39">
+        <v>0.1001439257802285</v>
+      </c>
+      <c r="J39">
+        <v>0.129623015553668</v>
+      </c>
+      <c r="K39">
+        <v>0.01511429360081038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07385151196573866</v>
+        <v>0.0484846868913601</v>
       </c>
       <c r="C40">
-        <v>0.01779068447181152</v>
+        <v>-0.04184178349564983</v>
       </c>
       <c r="D40">
-        <v>0.02867686799079023</v>
+        <v>-0.03364996691300688</v>
       </c>
       <c r="E40">
-        <v>-0.01668363372951345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01747541107025137</v>
+      </c>
+      <c r="F40">
+        <v>-0.06483239693447292</v>
+      </c>
+      <c r="G40">
+        <v>-0.0839503127381601</v>
+      </c>
+      <c r="H40">
+        <v>0.09209890464440068</v>
+      </c>
+      <c r="I40">
+        <v>0.1704631409195368</v>
+      </c>
+      <c r="J40">
+        <v>0.2361969947530928</v>
+      </c>
+      <c r="K40">
+        <v>-0.06623333079136141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.06248335449692947</v>
+        <v>0.0488219999095106</v>
       </c>
       <c r="C41">
-        <v>0.02624664567288005</v>
+        <v>-0.03193621175979058</v>
       </c>
       <c r="D41">
-        <v>0.007960894022095891</v>
+        <v>0.003461312265328775</v>
       </c>
       <c r="E41">
-        <v>0.004050464785725624</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002708291326943944</v>
+      </c>
+      <c r="F41">
+        <v>0.01777985071063182</v>
+      </c>
+      <c r="G41">
+        <v>-0.0172107869181061</v>
+      </c>
+      <c r="H41">
+        <v>-0.02942884386129813</v>
+      </c>
+      <c r="I41">
+        <v>0.01748628461913014</v>
+      </c>
+      <c r="J41">
+        <v>0.03312600732780004</v>
+      </c>
+      <c r="K41">
+        <v>-0.03615523623088494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06428376864232191</v>
+        <v>0.06172880831008241</v>
       </c>
       <c r="C43">
-        <v>0.01689674336793018</v>
+        <v>-0.03457656357536128</v>
       </c>
       <c r="D43">
-        <v>0.01676277424802176</v>
+        <v>0.009731706886148935</v>
       </c>
       <c r="E43">
-        <v>-0.02164493075982843</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01839199296566618</v>
+      </c>
+      <c r="F43">
+        <v>-0.01930366611715409</v>
+      </c>
+      <c r="G43">
+        <v>-0.005997388551970093</v>
+      </c>
+      <c r="H43">
+        <v>-0.05373817840987772</v>
+      </c>
+      <c r="I43">
+        <v>0.02039662869207771</v>
+      </c>
+      <c r="J43">
+        <v>0.007718709965182651</v>
+      </c>
+      <c r="K43">
+        <v>-0.008894319616081104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09364156071000448</v>
+        <v>0.09569944085001084</v>
       </c>
       <c r="C44">
-        <v>0.05925845123732668</v>
+        <v>-0.05475230829705171</v>
       </c>
       <c r="D44">
-        <v>0.01847608506523825</v>
+        <v>0.0008897853320772899</v>
       </c>
       <c r="E44">
-        <v>-0.07700401144386777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.06250179590459704</v>
+      </c>
+      <c r="F44">
+        <v>-0.1232051885591206</v>
+      </c>
+      <c r="G44">
+        <v>-0.1171237935605066</v>
+      </c>
+      <c r="H44">
+        <v>-0.02331275491270871</v>
+      </c>
+      <c r="I44">
+        <v>0.1241999129322359</v>
+      </c>
+      <c r="J44">
+        <v>0.05686108995430463</v>
+      </c>
+      <c r="K44">
+        <v>-0.01259133456278477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03247181256239719</v>
+        <v>0.04628991510978422</v>
       </c>
       <c r="C46">
-        <v>0.03288075987324713</v>
+        <v>-0.03071132042168349</v>
       </c>
       <c r="D46">
-        <v>0.01449578760012459</v>
+        <v>0.01357924415666683</v>
       </c>
       <c r="E46">
-        <v>-0.02353979626117519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.01487013757721554</v>
+      </c>
+      <c r="F46">
+        <v>-0.05001078272971546</v>
+      </c>
+      <c r="G46">
+        <v>-0.004196337576185243</v>
+      </c>
+      <c r="H46">
+        <v>-0.01007004230834326</v>
+      </c>
+      <c r="I46">
+        <v>0.02062732456231763</v>
+      </c>
+      <c r="J46">
+        <v>-0.03640566106630901</v>
+      </c>
+      <c r="K46">
+        <v>-0.04609292453508798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03893862688263108</v>
+        <v>0.04769367327687138</v>
       </c>
       <c r="C47">
-        <v>-0.007914336953214158</v>
+        <v>-0.007236704842993675</v>
       </c>
       <c r="D47">
-        <v>0.007882446415802991</v>
+        <v>-0.003898296869432642</v>
       </c>
       <c r="E47">
-        <v>-0.01959339459409375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008026323492883467</v>
+      </c>
+      <c r="F47">
+        <v>-0.04014861151679699</v>
+      </c>
+      <c r="G47">
+        <v>0.01125280177564318</v>
+      </c>
+      <c r="H47">
+        <v>-0.01477668088008028</v>
+      </c>
+      <c r="I47">
+        <v>0.02990226894200641</v>
+      </c>
+      <c r="J47">
+        <v>-0.03739746161472746</v>
+      </c>
+      <c r="K47">
+        <v>0.005918930935752211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.05074082747656417</v>
+        <v>0.044997509436101</v>
       </c>
       <c r="C48">
-        <v>0.01975335428206081</v>
+        <v>-0.01405151815010142</v>
       </c>
       <c r="D48">
-        <v>0.02643662730790296</v>
+        <v>-0.004215315356888181</v>
       </c>
       <c r="E48">
-        <v>-0.02325971978855089</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.007027632458485779</v>
+      </c>
+      <c r="F48">
+        <v>-0.04526319752202444</v>
+      </c>
+      <c r="G48">
+        <v>-0.0012764133620236</v>
+      </c>
+      <c r="H48">
+        <v>0.01030131499750641</v>
+      </c>
+      <c r="I48">
+        <v>0.05783975973648633</v>
+      </c>
+      <c r="J48">
+        <v>-0.01298221895193994</v>
+      </c>
+      <c r="K48">
+        <v>-0.04369401305117424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1478978346920314</v>
+        <v>0.2033039097786983</v>
       </c>
       <c r="C49">
-        <v>0.006987729189987716</v>
+        <v>-0.0166590007410806</v>
       </c>
       <c r="D49">
-        <v>0.07026735071361462</v>
+        <v>0.1572877956420883</v>
       </c>
       <c r="E49">
-        <v>-0.02844266073839459</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.02668795174349294</v>
+      </c>
+      <c r="F49">
+        <v>0.1293213672530145</v>
+      </c>
+      <c r="G49">
+        <v>0.1430749136920152</v>
+      </c>
+      <c r="H49">
+        <v>0.1566637235572902</v>
+      </c>
+      <c r="I49">
+        <v>-0.1225303221163728</v>
+      </c>
+      <c r="J49">
+        <v>0.07850160412805574</v>
+      </c>
+      <c r="K49">
+        <v>0.2185321289813312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06715975208220321</v>
+        <v>0.05760673246131383</v>
       </c>
       <c r="C50">
-        <v>0.02247232403227459</v>
+        <v>-0.03254981377598078</v>
       </c>
       <c r="D50">
-        <v>0.02985833827311647</v>
+        <v>0.01082987025593609</v>
       </c>
       <c r="E50">
-        <v>-0.008215073912682383</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02035287486503443</v>
+      </c>
+      <c r="F50">
+        <v>-0.02820049290764818</v>
+      </c>
+      <c r="G50">
+        <v>-0.0100836794422067</v>
+      </c>
+      <c r="H50">
+        <v>-0.05748464207697371</v>
+      </c>
+      <c r="I50">
+        <v>0.04212552080749364</v>
+      </c>
+      <c r="J50">
+        <v>-0.04898277561938418</v>
+      </c>
+      <c r="K50">
+        <v>-0.02870106699751776</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03458597971146058</v>
+        <v>0.03949325809202076</v>
       </c>
       <c r="C51">
-        <v>-0.00695270453634766</v>
+        <v>0.001867918528131299</v>
       </c>
       <c r="D51">
-        <v>-0.01621852622498171</v>
+        <v>-0.01544417183475915</v>
       </c>
       <c r="E51">
-        <v>-0.005998423893101608</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03196878973292733</v>
+      </c>
+      <c r="F51">
+        <v>0.01746992595720466</v>
+      </c>
+      <c r="G51">
+        <v>0.01076216911263081</v>
+      </c>
+      <c r="H51">
+        <v>0.01821082942907565</v>
+      </c>
+      <c r="I51">
+        <v>-0.01225934573853452</v>
+      </c>
+      <c r="J51">
+        <v>0.0407781445009212</v>
+      </c>
+      <c r="K51">
+        <v>0.06407170910662768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1549695591407245</v>
+        <v>0.1560443646608621</v>
       </c>
       <c r="C53">
-        <v>-0.0353285383380555</v>
+        <v>-0.01343937910567144</v>
       </c>
       <c r="D53">
-        <v>0.06245372016152135</v>
+        <v>0.06319796643559487</v>
       </c>
       <c r="E53">
-        <v>-0.002712250387996609</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.00737950496684809</v>
+      </c>
+      <c r="F53">
+        <v>0.02824629356561244</v>
+      </c>
+      <c r="G53">
+        <v>0.02933282017679605</v>
+      </c>
+      <c r="H53">
+        <v>-0.2379519295548762</v>
+      </c>
+      <c r="I53">
+        <v>-0.03768763290076309</v>
+      </c>
+      <c r="J53">
+        <v>-0.04165020297946311</v>
+      </c>
+      <c r="K53">
+        <v>0.0507716270068618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06723596916693785</v>
+        <v>0.06425059878199757</v>
       </c>
       <c r="C54">
-        <v>0.02114948575401581</v>
+        <v>-0.01369541169441246</v>
       </c>
       <c r="D54">
-        <v>0.009029478705184986</v>
+        <v>-0.008015222679942891</v>
       </c>
       <c r="E54">
-        <v>-0.03901120429877552</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.008165799359047224</v>
+      </c>
+      <c r="F54">
+        <v>-0.08502778821380387</v>
+      </c>
+      <c r="G54">
+        <v>-0.05738034027232848</v>
+      </c>
+      <c r="H54">
+        <v>0.00167906306938301</v>
+      </c>
+      <c r="I54">
+        <v>0.1127431787590714</v>
+      </c>
+      <c r="J54">
+        <v>-0.04202221041782005</v>
+      </c>
+      <c r="K54">
+        <v>-0.07082397333688183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09820206749965447</v>
+        <v>0.09656803352027769</v>
       </c>
       <c r="C55">
-        <v>-0.0002829242850224519</v>
+        <v>-0.02806596789451752</v>
       </c>
       <c r="D55">
-        <v>0.04945727483591406</v>
+        <v>0.04182624731422058</v>
       </c>
       <c r="E55">
-        <v>-0.02559041757534643</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.007320486972487478</v>
+      </c>
+      <c r="F55">
+        <v>-0.006574375054658604</v>
+      </c>
+      <c r="G55">
+        <v>-0.02798552065519361</v>
+      </c>
+      <c r="H55">
+        <v>-0.1706291691011097</v>
+      </c>
+      <c r="I55">
+        <v>0.01483468646993867</v>
+      </c>
+      <c r="J55">
+        <v>-0.03789356897688863</v>
+      </c>
+      <c r="K55">
+        <v>0.04633886227725584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.154166603901229</v>
+        <v>0.1518916856227873</v>
       </c>
       <c r="C56">
-        <v>-0.02828693078305508</v>
+        <v>-0.03321797615518496</v>
       </c>
       <c r="D56">
-        <v>0.08277657468482845</v>
+        <v>0.0692262055237112</v>
       </c>
       <c r="E56">
-        <v>-0.04058695363756445</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0001708204264124655</v>
+      </c>
+      <c r="F56">
+        <v>0.002704987765341782</v>
+      </c>
+      <c r="G56">
+        <v>0.007133468437773573</v>
+      </c>
+      <c r="H56">
+        <v>-0.2394639473572772</v>
+      </c>
+      <c r="I56">
+        <v>-0.04594502450408538</v>
+      </c>
+      <c r="J56">
+        <v>-0.01170601896902226</v>
+      </c>
+      <c r="K56">
+        <v>0.01214312256090225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1191841373694975</v>
+        <v>0.08024961672502383</v>
       </c>
       <c r="C58">
-        <v>0.05255311234110675</v>
+        <v>-0.04246817230516536</v>
       </c>
       <c r="D58">
-        <v>-0.1222886557902021</v>
+        <v>-0.1666438244169529</v>
       </c>
       <c r="E58">
-        <v>-0.1220647988172749</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.08295187937681438</v>
+      </c>
+      <c r="F58">
+        <v>-0.05331184676713205</v>
+      </c>
+      <c r="G58">
+        <v>0.06062754966286184</v>
+      </c>
+      <c r="H58">
+        <v>0.2901570149192148</v>
+      </c>
+      <c r="I58">
+        <v>0.4576893438447591</v>
+      </c>
+      <c r="J58">
+        <v>-0.005329850013368249</v>
+      </c>
+      <c r="K58">
+        <v>0.2582759921728117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1289263986821984</v>
+        <v>0.1655876830166853</v>
       </c>
       <c r="C59">
-        <v>-0.438675242857811</v>
+        <v>0.3562875693426526</v>
       </c>
       <c r="D59">
-        <v>-0.01740160335956963</v>
+        <v>-0.02437574101661708</v>
       </c>
       <c r="E59">
-        <v>-0.08207511614310942</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03191762653961291</v>
+      </c>
+      <c r="F59">
+        <v>0.01063283377250865</v>
+      </c>
+      <c r="G59">
+        <v>-0.03370221168251762</v>
+      </c>
+      <c r="H59">
+        <v>-0.05371738884308915</v>
+      </c>
+      <c r="I59">
+        <v>-0.0255997718915239</v>
+      </c>
+      <c r="J59">
+        <v>0.07148872770173516</v>
+      </c>
+      <c r="K59">
+        <v>-0.006619439721360054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2196529824891445</v>
+        <v>0.2452586055606648</v>
       </c>
       <c r="C60">
-        <v>-0.02599823338501782</v>
+        <v>-0.03494941657665895</v>
       </c>
       <c r="D60">
-        <v>0.07321164538698434</v>
+        <v>0.1192446706348636</v>
       </c>
       <c r="E60">
-        <v>-0.05930076736189485</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.04309659423589669</v>
+      </c>
+      <c r="F60">
+        <v>0.07510722925238679</v>
+      </c>
+      <c r="G60">
+        <v>0.03119655744552134</v>
+      </c>
+      <c r="H60">
+        <v>0.09411429139981753</v>
+      </c>
+      <c r="I60">
+        <v>-0.1675163422105973</v>
+      </c>
+      <c r="J60">
+        <v>-0.07125414961279651</v>
+      </c>
+      <c r="K60">
+        <v>0.141457516804621</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.08122994965589321</v>
+        <v>0.088412597647687</v>
       </c>
       <c r="C61">
-        <v>0.02609256289039585</v>
+        <v>-0.03756395853710432</v>
       </c>
       <c r="D61">
-        <v>0.02861669383579485</v>
+        <v>0.02756352050856282</v>
       </c>
       <c r="E61">
-        <v>-0.01016922606002171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.006198029422959389</v>
+      </c>
+      <c r="F61">
+        <v>-0.03076907067968849</v>
+      </c>
+      <c r="G61">
+        <v>-0.05492445608396141</v>
+      </c>
+      <c r="H61">
+        <v>-0.04681826289165628</v>
+      </c>
+      <c r="I61">
+        <v>0.06531160977191236</v>
+      </c>
+      <c r="J61">
+        <v>0.06095031513809734</v>
+      </c>
+      <c r="K61">
+        <v>-0.003252006215748478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1500604543063458</v>
+        <v>0.1463813346243137</v>
       </c>
       <c r="C62">
-        <v>-0.02259460467480858</v>
+        <v>-0.03615073524369591</v>
       </c>
       <c r="D62">
-        <v>0.03945772499478335</v>
+        <v>0.04032447682314447</v>
       </c>
       <c r="E62">
-        <v>0.0141025378905876</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0275304628867431</v>
+      </c>
+      <c r="F62">
+        <v>0.04204263474726999</v>
+      </c>
+      <c r="G62">
+        <v>-0.01871673690395656</v>
+      </c>
+      <c r="H62">
+        <v>-0.2365053719249525</v>
+      </c>
+      <c r="I62">
+        <v>-0.06487952026593555</v>
+      </c>
+      <c r="J62">
+        <v>-0.078125510447952</v>
+      </c>
+      <c r="K62">
+        <v>0.009737153182122545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06125333712457669</v>
+        <v>0.0538976962355657</v>
       </c>
       <c r="C63">
-        <v>0.02559379448722325</v>
+        <v>-0.02022982529148669</v>
       </c>
       <c r="D63">
-        <v>0.01945367859179615</v>
+        <v>0.009682899348371538</v>
       </c>
       <c r="E63">
-        <v>-0.01505808990158869</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01323150764783073</v>
+      </c>
+      <c r="F63">
+        <v>-0.03010529652632381</v>
+      </c>
+      <c r="G63">
+        <v>-0.04645625660211888</v>
+      </c>
+      <c r="H63">
+        <v>-0.01083398670951108</v>
+      </c>
+      <c r="I63">
+        <v>0.04217564090631247</v>
+      </c>
+      <c r="J63">
+        <v>-0.03919405065443574</v>
+      </c>
+      <c r="K63">
+        <v>-0.03927711395514216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.101239201543162</v>
+        <v>0.1067742149463822</v>
       </c>
       <c r="C64">
-        <v>-0.002626271729161978</v>
+        <v>-0.01795309649014807</v>
       </c>
       <c r="D64">
-        <v>0.05288269614468498</v>
+        <v>0.05088269068271112</v>
       </c>
       <c r="E64">
-        <v>-0.02834795993254684</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.01060014995382322</v>
+      </c>
+      <c r="F64">
+        <v>-0.06136194380319235</v>
+      </c>
+      <c r="G64">
+        <v>-0.03283618432553362</v>
+      </c>
+      <c r="H64">
+        <v>0.02131258403689565</v>
+      </c>
+      <c r="I64">
+        <v>0.05447704306854074</v>
+      </c>
+      <c r="J64">
+        <v>0.03564842170116906</v>
+      </c>
+      <c r="K64">
+        <v>-0.01923258713886631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1198299780585946</v>
+        <v>0.1317922594046465</v>
       </c>
       <c r="C65">
-        <v>0.02409281945825179</v>
+        <v>-0.009089436908249213</v>
       </c>
       <c r="D65">
-        <v>0.04172401729636654</v>
+        <v>0.06188024266876746</v>
       </c>
       <c r="E65">
-        <v>-0.05146080341027373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.009051723590130015</v>
+      </c>
+      <c r="F65">
+        <v>-0.04104854932175551</v>
+      </c>
+      <c r="G65">
+        <v>-0.08126339146319393</v>
+      </c>
+      <c r="H65">
+        <v>0.2362189653133883</v>
+      </c>
+      <c r="I65">
+        <v>-0.02921441922460848</v>
+      </c>
+      <c r="J65">
+        <v>-0.6532841330751469</v>
+      </c>
+      <c r="K65">
+        <v>0.02306489123415482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1581548630384814</v>
+        <v>0.1472209509529821</v>
       </c>
       <c r="C66">
-        <v>0.07738283587801824</v>
+        <v>-0.0927032677914042</v>
       </c>
       <c r="D66">
-        <v>0.05122095477951224</v>
+        <v>0.0434966821441214</v>
       </c>
       <c r="E66">
-        <v>-0.01760396869015583</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.002912109503045212</v>
+      </c>
+      <c r="F66">
+        <v>-0.02581386299009323</v>
+      </c>
+      <c r="G66">
+        <v>-0.09250200641598133</v>
+      </c>
+      <c r="H66">
+        <v>-0.01871351310662507</v>
+      </c>
+      <c r="I66">
+        <v>0.1349512472464218</v>
+      </c>
+      <c r="J66">
+        <v>0.1958904833182713</v>
+      </c>
+      <c r="K66">
+        <v>-0.04324084084954308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09699042944079261</v>
+        <v>0.09763840995803705</v>
       </c>
       <c r="C67">
-        <v>0.007689170203752965</v>
+        <v>-0.04309753373275531</v>
       </c>
       <c r="D67">
-        <v>-0.02507868531925186</v>
+        <v>-0.01775424604400618</v>
       </c>
       <c r="E67">
-        <v>-0.003948627511370164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03570667118653488</v>
+      </c>
+      <c r="F67">
+        <v>0.01834137129719534</v>
+      </c>
+      <c r="G67">
+        <v>-0.001060697945536015</v>
+      </c>
+      <c r="H67">
+        <v>-0.01820387565444274</v>
+      </c>
+      <c r="I67">
+        <v>-0.07027033365004463</v>
+      </c>
+      <c r="J67">
+        <v>0.0500018300040694</v>
+      </c>
+      <c r="K67">
+        <v>-0.05011129647106363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04287661005862784</v>
+        <v>0.07702425279930311</v>
       </c>
       <c r="C68">
-        <v>-0.2605602931703553</v>
+        <v>0.2817026769146411</v>
       </c>
       <c r="D68">
-        <v>-0.01105193555893965</v>
+        <v>-0.01626435467332799</v>
       </c>
       <c r="E68">
-        <v>-0.04144428248564561</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.009139796250658288</v>
+      </c>
+      <c r="F68">
+        <v>-0.04492214523229603</v>
+      </c>
+      <c r="G68">
+        <v>0.009642980911075542</v>
+      </c>
+      <c r="H68">
+        <v>-0.01316990172288874</v>
+      </c>
+      <c r="I68">
+        <v>0.03121045295393207</v>
+      </c>
+      <c r="J68">
+        <v>-0.04471492389830503</v>
+      </c>
+      <c r="K68">
+        <v>-0.01246960268788527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06937932805625414</v>
+        <v>0.05795958446699768</v>
       </c>
       <c r="C69">
-        <v>0.01280938436505915</v>
+        <v>-0.01770692605831272</v>
       </c>
       <c r="D69">
-        <v>-0.002853489423423576</v>
+        <v>-0.02162326891963161</v>
       </c>
       <c r="E69">
-        <v>-0.01588086777067146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.00620562919299409</v>
+      </c>
+      <c r="F69">
+        <v>-0.006698019036254516</v>
+      </c>
+      <c r="G69">
+        <v>-0.01010375209652597</v>
+      </c>
+      <c r="H69">
+        <v>-0.03131527044302818</v>
+      </c>
+      <c r="I69">
+        <v>0.01517557933638498</v>
+      </c>
+      <c r="J69">
+        <v>0.003290763508221004</v>
+      </c>
+      <c r="K69">
+        <v>0.009204163621385583</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.0136868561471792</v>
+        <v>0.03823078764673497</v>
       </c>
       <c r="C70">
-        <v>-0.01216664095061818</v>
+        <v>-0.005847849437614798</v>
       </c>
       <c r="D70">
-        <v>-0.005937250615089631</v>
+        <v>-0.0008081066523361599</v>
       </c>
       <c r="E70">
-        <v>0.01323869778677963</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.002700129710462559</v>
+      </c>
+      <c r="F70">
+        <v>0.05146195797736985</v>
+      </c>
+      <c r="G70">
+        <v>0.007261469904465875</v>
+      </c>
+      <c r="H70">
+        <v>0.04027770525354474</v>
+      </c>
+      <c r="I70">
+        <v>-0.02076441955954786</v>
+      </c>
+      <c r="J70">
+        <v>0.02199749111698146</v>
+      </c>
+      <c r="K70">
+        <v>-0.1216269277633026</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04041915610001431</v>
+        <v>0.08540833386783278</v>
       </c>
       <c r="C71">
-        <v>-0.2898469901275292</v>
+        <v>0.3016368557412173</v>
       </c>
       <c r="D71">
-        <v>-0.01882002608002345</v>
+        <v>-0.007630941499664899</v>
       </c>
       <c r="E71">
-        <v>-0.07873997194416094</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02883228661814126</v>
+      </c>
+      <c r="F71">
+        <v>-0.04032240559019105</v>
+      </c>
+      <c r="G71">
+        <v>0.001576667596017862</v>
+      </c>
+      <c r="H71">
+        <v>-0.01525854152444146</v>
+      </c>
+      <c r="I71">
+        <v>0.02398852041488973</v>
+      </c>
+      <c r="J71">
+        <v>-0.01686544552747731</v>
+      </c>
+      <c r="K71">
+        <v>-0.0004142235535115023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1481095301297843</v>
+        <v>0.1368583531153898</v>
       </c>
       <c r="C72">
-        <v>-0.04359071329956001</v>
+        <v>0.0007396005254860411</v>
       </c>
       <c r="D72">
-        <v>0.03566165628818567</v>
+        <v>-0.0248759190697863</v>
       </c>
       <c r="E72">
-        <v>0.2306724288526725</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.1647749033266351</v>
+      </c>
+      <c r="F72">
+        <v>0.04687875785776072</v>
+      </c>
+      <c r="G72">
+        <v>-0.1191575882585181</v>
+      </c>
+      <c r="H72">
+        <v>-0.0144927121085832</v>
+      </c>
+      <c r="I72">
+        <v>-0.05524632715025205</v>
+      </c>
+      <c r="J72">
+        <v>-0.1055951718973151</v>
+      </c>
+      <c r="K72">
+        <v>0.1084237421162493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.254396668252364</v>
+        <v>0.2481670853470239</v>
       </c>
       <c r="C73">
-        <v>0.05255429544645954</v>
+        <v>-0.09987938378549972</v>
       </c>
       <c r="D73">
-        <v>0.09034641011167775</v>
+        <v>0.1652354160518345</v>
       </c>
       <c r="E73">
-        <v>-0.08542738452392551</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.1113354066628351</v>
+      </c>
+      <c r="F73">
+        <v>0.2406735442732612</v>
+      </c>
+      <c r="G73">
+        <v>0.1900178398955558</v>
+      </c>
+      <c r="H73">
+        <v>0.2318195010417404</v>
+      </c>
+      <c r="I73">
+        <v>-0.0815751564591865</v>
+      </c>
+      <c r="J73">
+        <v>0.24456136083899</v>
+      </c>
+      <c r="K73">
+        <v>0.481732155875127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08646868913790026</v>
+        <v>0.0926183834083753</v>
       </c>
       <c r="C74">
-        <v>-0.01545476059730865</v>
+        <v>-0.02951817569441199</v>
       </c>
       <c r="D74">
-        <v>0.05608325283849747</v>
+        <v>0.04725427942523581</v>
       </c>
       <c r="E74">
-        <v>-0.002429751666789413</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01707196909882414</v>
+      </c>
+      <c r="F74">
+        <v>-0.0001120238200114293</v>
+      </c>
+      <c r="G74">
+        <v>0.03389577322619256</v>
+      </c>
+      <c r="H74">
+        <v>-0.1422761123822724</v>
+      </c>
+      <c r="I74">
+        <v>0.02907248788307355</v>
+      </c>
+      <c r="J74">
+        <v>-0.007368208904701181</v>
+      </c>
+      <c r="K74">
+        <v>0.06159369762532412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.1218362964123403</v>
+        <v>0.1051195460870545</v>
       </c>
       <c r="C75">
-        <v>-0.001755579795456165</v>
+        <v>-0.02811789230313328</v>
       </c>
       <c r="D75">
-        <v>0.004373957155193958</v>
+        <v>-0.01632228118473709</v>
       </c>
       <c r="E75">
-        <v>-0.02098565223348445</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.009317131155788611</v>
+      </c>
+      <c r="F75">
+        <v>0.02258863857714946</v>
+      </c>
+      <c r="G75">
+        <v>0.01349239316296933</v>
+      </c>
+      <c r="H75">
+        <v>-0.1240619977217254</v>
+      </c>
+      <c r="I75">
+        <v>-0.02723239091633773</v>
+      </c>
+      <c r="J75">
+        <v>-0.03210441026502547</v>
+      </c>
+      <c r="K75">
+        <v>0.009520358642168407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1421562215581579</v>
+        <v>0.1300306188618523</v>
       </c>
       <c r="C76">
-        <v>-0.005785933469439388</v>
+        <v>-0.04725670887481682</v>
       </c>
       <c r="D76">
-        <v>0.0679528897934901</v>
+        <v>0.06472160942895613</v>
       </c>
       <c r="E76">
-        <v>-0.02586805523121531</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.007010769053002013</v>
+      </c>
+      <c r="F76">
+        <v>-0.0050382664853694</v>
+      </c>
+      <c r="G76">
+        <v>0.01004045753135167</v>
+      </c>
+      <c r="H76">
+        <v>-0.2743271624956881</v>
+      </c>
+      <c r="I76">
+        <v>-0.01567396710023399</v>
+      </c>
+      <c r="J76">
+        <v>-0.03674937931237242</v>
+      </c>
+      <c r="K76">
+        <v>0.03496661424735679</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1331539797390374</v>
+        <v>0.09131312087241518</v>
       </c>
       <c r="C77">
-        <v>0.04413270480986586</v>
+        <v>-0.03299018905956923</v>
       </c>
       <c r="D77">
-        <v>-0.05350450964576945</v>
+        <v>-0.1347279390928104</v>
       </c>
       <c r="E77">
-        <v>-0.04318074699566658</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.06387294875147891</v>
+      </c>
+      <c r="F77">
+        <v>-0.1223170486029884</v>
+      </c>
+      <c r="G77">
+        <v>-0.6817116476525266</v>
+      </c>
+      <c r="H77">
+        <v>0.1670681326211436</v>
+      </c>
+      <c r="I77">
+        <v>-0.4685338074741404</v>
+      </c>
+      <c r="J77">
+        <v>0.2252157178933762</v>
+      </c>
+      <c r="K77">
+        <v>0.003621943163979528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1218614447058929</v>
+        <v>0.1562352597945773</v>
       </c>
       <c r="C78">
-        <v>0.06774873720061604</v>
+        <v>-0.07293229603059904</v>
       </c>
       <c r="D78">
-        <v>0.04585621303161408</v>
+        <v>0.02368645990878224</v>
       </c>
       <c r="E78">
-        <v>-0.005584813372372095</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.03869912726477273</v>
+      </c>
+      <c r="F78">
+        <v>-0.1741083017748194</v>
+      </c>
+      <c r="G78">
+        <v>-0.02591959412573597</v>
+      </c>
+      <c r="H78">
+        <v>0.1403386766906323</v>
+      </c>
+      <c r="I78">
+        <v>-0.07073008912227916</v>
+      </c>
+      <c r="J78">
+        <v>-0.06072646333983704</v>
+      </c>
+      <c r="K78">
+        <v>0.006146795514029493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1519816787286145</v>
+        <v>0.1454710223656569</v>
       </c>
       <c r="C79">
-        <v>0.01863753518956812</v>
+        <v>-0.0413180484110709</v>
       </c>
       <c r="D79">
-        <v>0.05919462972658474</v>
+        <v>0.04455757203432691</v>
       </c>
       <c r="E79">
-        <v>-0.005718030370530248</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.00520922195214685</v>
+      </c>
+      <c r="F79">
+        <v>0.004190410269670863</v>
+      </c>
+      <c r="G79">
+        <v>-0.02302976512469533</v>
+      </c>
+      <c r="H79">
+        <v>-0.1987230419104551</v>
+      </c>
+      <c r="I79">
+        <v>-0.03634609183054568</v>
+      </c>
+      <c r="J79">
+        <v>-0.06998928825511926</v>
+      </c>
+      <c r="K79">
+        <v>0.02186272304307403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.0392909169343476</v>
+        <v>0.04436740666653644</v>
       </c>
       <c r="C80">
-        <v>0.01754871160182048</v>
+        <v>-0.005707748376076856</v>
       </c>
       <c r="D80">
-        <v>0.01250253666046914</v>
+        <v>0.0414178953341903</v>
       </c>
       <c r="E80">
-        <v>-0.003622952849553968</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.002848530200471704</v>
+      </c>
+      <c r="F80">
+        <v>0.04228803193267464</v>
+      </c>
+      <c r="G80">
+        <v>-0.009111232534796234</v>
+      </c>
+      <c r="H80">
+        <v>0.04385126834506228</v>
+      </c>
+      <c r="I80">
+        <v>0.08262265801366706</v>
+      </c>
+      <c r="J80">
+        <v>-0.004175865226254938</v>
+      </c>
+      <c r="K80">
+        <v>-0.02210016545274529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1368999412826209</v>
+        <v>0.1337813758258906</v>
       </c>
       <c r="C81">
-        <v>-0.001018568680347624</v>
+        <v>-0.01678388073176105</v>
       </c>
       <c r="D81">
-        <v>0.04697500009433363</v>
+        <v>0.03978063559684662</v>
       </c>
       <c r="E81">
-        <v>-0.02733664111506193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.004992378313758469</v>
+      </c>
+      <c r="F81">
+        <v>0.005411795608708418</v>
+      </c>
+      <c r="G81">
+        <v>-0.01214849192212259</v>
+      </c>
+      <c r="H81">
+        <v>-0.1558539895346387</v>
+      </c>
+      <c r="I81">
+        <v>0.009672174643344291</v>
+      </c>
+      <c r="J81">
+        <v>0.02312931333999269</v>
+      </c>
+      <c r="K81">
+        <v>-0.008841680673288981</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1226619844469602</v>
+        <v>0.1260394882972751</v>
       </c>
       <c r="C82">
-        <v>0.01552664046000329</v>
+        <v>-0.02796493162739341</v>
       </c>
       <c r="D82">
-        <v>0.02481523781327385</v>
+        <v>0.03689771346287325</v>
       </c>
       <c r="E82">
-        <v>-0.04343314339292753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01432101103348306</v>
+      </c>
+      <c r="F82">
+        <v>0.02552918811601938</v>
+      </c>
+      <c r="G82">
+        <v>0.01337052697110631</v>
+      </c>
+      <c r="H82">
+        <v>-0.2851586124157681</v>
+      </c>
+      <c r="I82">
+        <v>-8.619967625337636e-05</v>
+      </c>
+      <c r="J82">
+        <v>0.004238282464399745</v>
+      </c>
+      <c r="K82">
+        <v>-0.000464083627995565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.05404328034746506</v>
+        <v>0.0772471747421327</v>
       </c>
       <c r="C83">
-        <v>0.01818014106887824</v>
+        <v>-0.03006317951941413</v>
       </c>
       <c r="D83">
-        <v>-0.06199290138998306</v>
+        <v>-0.03100085233283738</v>
       </c>
       <c r="E83">
-        <v>-0.0219104185681648</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.04835373173668328</v>
+      </c>
+      <c r="F83">
+        <v>0.06123744602972429</v>
+      </c>
+      <c r="G83">
+        <v>0.02876308660207936</v>
+      </c>
+      <c r="H83">
+        <v>0.08360311206624146</v>
+      </c>
+      <c r="I83">
+        <v>0.07846890362151536</v>
+      </c>
+      <c r="J83">
+        <v>0.02795710300203859</v>
+      </c>
+      <c r="K83">
+        <v>-0.04189427474196372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05177672798316559</v>
+        <v>0.03569907830363631</v>
       </c>
       <c r="C84">
-        <v>0.01424045900465863</v>
+        <v>-0.04307899494443428</v>
       </c>
       <c r="D84">
-        <v>0.04507080816679804</v>
+        <v>0.004911936611850281</v>
       </c>
       <c r="E84">
-        <v>0.03329397908914548</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.05576636199850689</v>
+      </c>
+      <c r="F84">
+        <v>-0.03534445942471742</v>
+      </c>
+      <c r="G84">
+        <v>0.03904778230777609</v>
+      </c>
+      <c r="H84">
+        <v>0.006814015505640669</v>
+      </c>
+      <c r="I84">
+        <v>0.1320701176899075</v>
+      </c>
+      <c r="J84">
+        <v>0.0008860467461352959</v>
+      </c>
+      <c r="K84">
+        <v>-0.1046224047309896</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.114538844289309</v>
+        <v>0.1213559777294996</v>
       </c>
       <c r="C85">
-        <v>0.03442800532187199</v>
+        <v>-0.0374430398120922</v>
       </c>
       <c r="D85">
-        <v>0.01775000780106553</v>
+        <v>0.02338121284494405</v>
       </c>
       <c r="E85">
-        <v>-0.06065331391331957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.03587852878036613</v>
+      </c>
+      <c r="F85">
+        <v>-0.01164768909747627</v>
+      </c>
+      <c r="G85">
+        <v>-0.0149514783660043</v>
+      </c>
+      <c r="H85">
+        <v>-0.2002562393362652</v>
+      </c>
+      <c r="I85">
+        <v>-0.009072807016383421</v>
+      </c>
+      <c r="J85">
+        <v>-0.07072418371155112</v>
+      </c>
+      <c r="K85">
+        <v>0.02583975706894317</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07694180897859176</v>
+        <v>0.06719984846850828</v>
       </c>
       <c r="C86">
-        <v>0.06806281494489108</v>
+        <v>-0.03418187671063897</v>
       </c>
       <c r="D86">
-        <v>0.01513192499949415</v>
+        <v>-0.01234680932142587</v>
       </c>
       <c r="E86">
-        <v>-0.02076465440759754</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02243368692227825</v>
+      </c>
+      <c r="F86">
+        <v>-0.03581609495144249</v>
+      </c>
+      <c r="G86">
+        <v>-0.004322436395004778</v>
+      </c>
+      <c r="H86">
+        <v>0.03977693878791673</v>
+      </c>
+      <c r="I86">
+        <v>-0.06614907005421219</v>
+      </c>
+      <c r="J86">
+        <v>-0.02050149463350899</v>
+      </c>
+      <c r="K86">
+        <v>-0.09349954978368316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.132851749531436</v>
+        <v>0.1322218189276657</v>
       </c>
       <c r="C87">
-        <v>0.07275512996827266</v>
+        <v>-0.0736786472058973</v>
       </c>
       <c r="D87">
-        <v>0.06176271572247653</v>
+        <v>0.01878005087404175</v>
       </c>
       <c r="E87">
-        <v>-0.03754181267373766</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.00443090809521435</v>
+      </c>
+      <c r="F87">
+        <v>-0.1018177033609946</v>
+      </c>
+      <c r="G87">
+        <v>-0.1881512411861467</v>
+      </c>
+      <c r="H87">
+        <v>0.05906465524305875</v>
+      </c>
+      <c r="I87">
+        <v>-0.03104053775624602</v>
+      </c>
+      <c r="J87">
+        <v>0.03925902316264181</v>
+      </c>
+      <c r="K87">
+        <v>-0.01688507634453167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.05943179873919851</v>
+        <v>0.06491868195748472</v>
       </c>
       <c r="C88">
-        <v>0.02098494013480505</v>
+        <v>-0.03643568106798591</v>
       </c>
       <c r="D88">
-        <v>0.01613363268342388</v>
+        <v>0.02990997335551665</v>
       </c>
       <c r="E88">
-        <v>-0.009469311803687651</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.009792715869898017</v>
+      </c>
+      <c r="F88">
+        <v>0.004970224628880103</v>
+      </c>
+      <c r="G88">
+        <v>-0.01273125687336921</v>
+      </c>
+      <c r="H88">
+        <v>-0.01106987077687551</v>
+      </c>
+      <c r="I88">
+        <v>0.04474325090123576</v>
+      </c>
+      <c r="J88">
+        <v>0.01648603113142177</v>
+      </c>
+      <c r="K88">
+        <v>-0.02266386089648533</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.07670301780620609</v>
+        <v>0.138648557443705</v>
       </c>
       <c r="C89">
-        <v>-0.3264003295910231</v>
+        <v>0.3779966068793921</v>
       </c>
       <c r="D89">
-        <v>-0.01260356357169001</v>
+        <v>0.005409922662525014</v>
       </c>
       <c r="E89">
-        <v>-0.1043805461895931</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.07363998656904071</v>
+      </c>
+      <c r="F89">
+        <v>-0.04564045356413866</v>
+      </c>
+      <c r="G89">
+        <v>0.01907145850310006</v>
+      </c>
+      <c r="H89">
+        <v>0.01448221235376034</v>
+      </c>
+      <c r="I89">
+        <v>0.07502441042054112</v>
+      </c>
+      <c r="J89">
+        <v>0.06972329925224621</v>
+      </c>
+      <c r="K89">
+        <v>0.01383819695785702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06322741193093392</v>
+        <v>0.09829698510744336</v>
       </c>
       <c r="C90">
-        <v>-0.2901961968767634</v>
+        <v>0.2847382034857031</v>
       </c>
       <c r="D90">
-        <v>-0.03419982861602644</v>
+        <v>-0.02647379058823789</v>
       </c>
       <c r="E90">
-        <v>-0.04916091725038248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0257717207979944</v>
+      </c>
+      <c r="F90">
+        <v>-0.01892169718306656</v>
+      </c>
+      <c r="G90">
+        <v>-0.03121461204496624</v>
+      </c>
+      <c r="H90">
+        <v>0.04632713042693228</v>
+      </c>
+      <c r="I90">
+        <v>0.06407451985826169</v>
+      </c>
+      <c r="J90">
+        <v>0.04266391130708441</v>
+      </c>
+      <c r="K90">
+        <v>0.01959366168559823</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1028747333633744</v>
+        <v>0.08941362811479324</v>
       </c>
       <c r="C91">
-        <v>0.009638949919299637</v>
+        <v>-0.03438799385262488</v>
       </c>
       <c r="D91">
-        <v>0.02678605797285792</v>
+        <v>0.006832004284964728</v>
       </c>
       <c r="E91">
-        <v>-0.01236260492714361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.00587334963514601</v>
+      </c>
+      <c r="F91">
+        <v>0.009137241629662583</v>
+      </c>
+      <c r="G91">
+        <v>0.01942967654448563</v>
+      </c>
+      <c r="H91">
+        <v>-0.0904287255070846</v>
+      </c>
+      <c r="I91">
+        <v>-0.01775234856945569</v>
+      </c>
+      <c r="J91">
+        <v>-0.00929082521389377</v>
+      </c>
+      <c r="K91">
+        <v>0.01907164262220579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.04845087958392855</v>
+        <v>0.0983962427569897</v>
       </c>
       <c r="C92">
-        <v>-0.3412855828756181</v>
+        <v>0.3400962477282553</v>
       </c>
       <c r="D92">
-        <v>0.008255058766785037</v>
+        <v>0.009247149894088468</v>
       </c>
       <c r="E92">
-        <v>-0.08586004704501021</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.02945340466418942</v>
+      </c>
+      <c r="F92">
+        <v>-0.04974260930704859</v>
+      </c>
+      <c r="G92">
+        <v>0.01981666115025281</v>
+      </c>
+      <c r="H92">
+        <v>-0.01214477137989089</v>
+      </c>
+      <c r="I92">
+        <v>0.03088206247792369</v>
+      </c>
+      <c r="J92">
+        <v>0.02424635398168254</v>
+      </c>
+      <c r="K92">
+        <v>0.003289454708245423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.04523833703804468</v>
+        <v>0.09996196574786767</v>
       </c>
       <c r="C93">
-        <v>-0.2992893960644264</v>
+        <v>0.3171906752574654</v>
       </c>
       <c r="D93">
-        <v>-0.01429138455097423</v>
+        <v>0.002203068532865771</v>
       </c>
       <c r="E93">
-        <v>-0.05375066754716119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01768497362448843</v>
+      </c>
+      <c r="F93">
+        <v>-0.007913042400150647</v>
+      </c>
+      <c r="G93">
+        <v>0.006373238198509555</v>
+      </c>
+      <c r="H93">
+        <v>0.01049927199439124</v>
+      </c>
+      <c r="I93">
+        <v>0.004274094395627938</v>
+      </c>
+      <c r="J93">
+        <v>-0.009362539233411314</v>
+      </c>
+      <c r="K93">
+        <v>-0.03038763618508159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.1273619251713493</v>
+        <v>0.1220252814758286</v>
       </c>
       <c r="C94">
-        <v>0.05247697583025192</v>
+        <v>-0.05375674489515232</v>
       </c>
       <c r="D94">
-        <v>0.02596890091151577</v>
+        <v>0.01063391071696296</v>
       </c>
       <c r="E94">
-        <v>-0.03696963400020951</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.02683410170966459</v>
+      </c>
+      <c r="F94">
+        <v>-0.01038614521561262</v>
+      </c>
+      <c r="G94">
+        <v>0.05051141396744815</v>
+      </c>
+      <c r="H94">
+        <v>-0.1193512509181393</v>
+      </c>
+      <c r="I94">
+        <v>-0.01189491160828365</v>
+      </c>
+      <c r="J94">
+        <v>-0.0186205925686655</v>
+      </c>
+      <c r="K94">
+        <v>0.01869397171724135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1325025051885184</v>
+        <v>0.142751378313384</v>
       </c>
       <c r="C95">
-        <v>0.07451996795835669</v>
+        <v>-0.06561631956311582</v>
       </c>
       <c r="D95">
-        <v>0.06605491268374215</v>
+        <v>0.03937025066397985</v>
       </c>
       <c r="E95">
-        <v>-0.0730741356924999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.02193707909352496</v>
+      </c>
+      <c r="F95">
+        <v>-0.06407509827508605</v>
+      </c>
+      <c r="G95">
+        <v>-0.03278371453336706</v>
+      </c>
+      <c r="H95">
+        <v>0.1462578163719924</v>
+      </c>
+      <c r="I95">
+        <v>0.03315019273608592</v>
+      </c>
+      <c r="J95">
+        <v>-0.01743914480984095</v>
+      </c>
+      <c r="K95">
+        <v>0.03657893935029607</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2495702606625607</v>
+        <v>0.1892298129955685</v>
       </c>
       <c r="C97">
-        <v>-0.1355544952458644</v>
+        <v>0.0310007006177564</v>
       </c>
       <c r="D97">
-        <v>0.04530468917462956</v>
+        <v>-0.2723481710723675</v>
       </c>
       <c r="E97">
-        <v>0.8921568465098673</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.8819715050061587</v>
+      </c>
+      <c r="F97">
+        <v>0.1865568688325419</v>
+      </c>
+      <c r="G97">
+        <v>-0.03168629367503746</v>
+      </c>
+      <c r="H97">
+        <v>0.05989445843755094</v>
+      </c>
+      <c r="I97">
+        <v>0.04177266064983139</v>
+      </c>
+      <c r="J97">
+        <v>0.03701897474776451</v>
+      </c>
+      <c r="K97">
+        <v>0.05087170741029976</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2849136819512958</v>
+        <v>0.2861555865290458</v>
       </c>
       <c r="C98">
-        <v>0.04193223039998408</v>
+        <v>-0.09185481757726165</v>
       </c>
       <c r="D98">
-        <v>-0.01844962320930282</v>
+        <v>0.05405261546137261</v>
       </c>
       <c r="E98">
-        <v>-0.07056476459640421</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.05654834880890729</v>
+      </c>
+      <c r="F98">
+        <v>0.3090610782863241</v>
+      </c>
+      <c r="G98">
+        <v>0.3176197391212157</v>
+      </c>
+      <c r="H98">
+        <v>0.2352609087752074</v>
+      </c>
+      <c r="I98">
+        <v>-0.2088670270242061</v>
+      </c>
+      <c r="J98">
+        <v>0.1157850330476962</v>
+      </c>
+      <c r="K98">
+        <v>-0.6190180216141302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2315957648780594</v>
+        <v>0.1526587428483514</v>
       </c>
       <c r="C99">
-        <v>0.06270262965476257</v>
+        <v>-0.06356065663670303</v>
       </c>
       <c r="D99">
-        <v>-0.9294651820467952</v>
+        <v>-0.7784634919469876</v>
       </c>
       <c r="E99">
-        <v>0.01024636903532992</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.3542167683762414</v>
+      </c>
+      <c r="F99">
+        <v>0.3561658617816287</v>
+      </c>
+      <c r="G99">
+        <v>-0.045293669001795</v>
+      </c>
+      <c r="H99">
+        <v>-0.1041400036458345</v>
+      </c>
+      <c r="I99">
+        <v>0.06213501896131245</v>
+      </c>
+      <c r="J99">
+        <v>-0.1100922041112186</v>
+      </c>
+      <c r="K99">
+        <v>0.03375692648751246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.06003947158075861</v>
+        <v>0.05537949471871152</v>
       </c>
       <c r="C101">
-        <v>9.492014462183789e-05</v>
+        <v>-0.01085280201090405</v>
       </c>
       <c r="D101">
-        <v>0.03241146271670495</v>
+        <v>0.02464960401179761</v>
       </c>
       <c r="E101">
-        <v>-0.0216879397978147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008418930321208008</v>
+      </c>
+      <c r="F101">
+        <v>-0.03538093007103894</v>
+      </c>
+      <c r="G101">
+        <v>-0.02904180861856627</v>
+      </c>
+      <c r="H101">
+        <v>-0.05364591483225584</v>
+      </c>
+      <c r="I101">
+        <v>0.05140121059571708</v>
+      </c>
+      <c r="J101">
+        <v>-0.02188725877122718</v>
+      </c>
+      <c r="K101">
+        <v>-0.03720930195579739</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
